--- a/biology/Médecine/Sonde_de_Blakemore/Sonde_de_Blakemore.xlsx
+++ b/biology/Médecine/Sonde_de_Blakemore/Sonde_de_Blakemore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sonde de Blakemore, ou sonde de Sengstaken et Blakemore, est un dispositif médical indiqué en cas d'hémorragie digestive haute par rupture de varices œsophagiennes, ou ulcération hémorragique du cardia. Elle est généralement utilisée dans un contexte d'urgence lorsque les alternatives au traitement de l'hémorragie sont insuffisantes ou inefficaces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sonde de Blakemore, ou sonde de Sengstaken et Blakemore, est un dispositif médical indiqué en cas d'hémorragie digestive haute par rupture de varices œsophagiennes, ou ulcération hémorragique du cardia. Elle est généralement utilisée dans un contexte d'urgence lorsque les alternatives au traitement de l'hémorragie sont insuffisantes ou inefficaces.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description et fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les chiffres/lettres (*1) se réfèrent au schéma du principe de fonctionnement.
